--- a/Saucedemo Home page documentation/Saucedemo Home page-Design requirement.xlsx
+++ b/Saucedemo Home page documentation/Saucedemo Home page-Design requirement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive - ahqb\Desktop\SeleniumTask\Saucedemo Home page documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive - ahqb\Desktop\SeleniumAndSpecFlowTask\Saucedemo Home page documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96010A3B-C95F-4026-8211-22A52FBBCA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E2A270-588C-4FAE-9998-BE1BAC3B5B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>1.2.1</t>
   </si>
   <si>
-    <t>Click on "Cart" menu opens "https://www.saucedemo.com/cart.html" page.</t>
-  </si>
-  <si>
     <t>Home page shall have "Products" text.</t>
   </si>
   <si>
@@ -69,18 +66,9 @@
     <t>Home page shall have product list.</t>
   </si>
   <si>
-    <t>Clisk on "Menu" button displays "X" button,"ALL ITEMS"button,"ABOUT" button,"LOGOUT" button and "RESET APP STATE" button that are enabled.</t>
-  </si>
-  <si>
-    <t>Product list shall have name,description,price and "ADD TO CART" button fow every product.</t>
-  </si>
-  <si>
     <t>1.5.2</t>
   </si>
   <si>
-    <t>Click on "ADD TO CART" button displays "REMOVE" button and number of products in cart.</t>
-  </si>
-  <si>
     <t>Home page shall have "Twitter" button.It is displayed and enabled.</t>
   </si>
   <si>
@@ -91,6 +79,18 @@
   </si>
   <si>
     <t>Home page shall have "© 2022 Sauce Labs. All Rights Reserved. Terms of Service | Privacy Policy" text.</t>
+  </si>
+  <si>
+    <t>Clicks on "Menu" button displays "X" button,"ALL ITEMS"button,"ABOUT" button,"LOGOUT" button and "RESET APP STATE" button that are enabled.</t>
+  </si>
+  <si>
+    <t>Clicks on "Cart" menu opens "https://www.saucedemo.com/cart.html" page.</t>
+  </si>
+  <si>
+    <t>Clicks on "ADD TO CART" button displays "REMOVE" button and number of products in cart.</t>
+  </si>
+  <si>
+    <t>Product list shall have name,description,price and "ADD TO CART" button for every product.</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -513,7 +513,7 @@
         <v>1.3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -521,15 +521,15 @@
         <v>1.4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -537,23 +537,23 @@
         <v>1.5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
         <v>1.6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>1.7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -577,7 +577,7 @@
         <v>1.8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -585,7 +585,7 @@
         <v>1.9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
